--- a/Daily Show.xlsx
+++ b/Daily Show.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michael/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\Liang-Peng\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1155" yWindow="465" windowWidth="27645" windowHeight="17535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,30 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>day1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -58,13 +74,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -336,14 +355,22 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>